--- a/data-raw/who_countries.xlsx
+++ b/data-raw/who_countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caldwellst/Documents/repos/packages/whotilities/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527C046D-D1DD-C84A-BA19-6A05F681DF43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD8FDB9-56BF-6B4C-8314-034636645952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3260" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4948,9 +4948,6 @@
     <t>Turkménistan</t>
   </si>
   <si>
-    <t>Emiratos A�rabes Unidos</t>
-  </si>
-  <si>
     <t>Émirats arabes unis</t>
   </si>
   <si>
@@ -4976,6 +4973,9 @@
   </si>
   <si>
     <t>ex-République yougoslave de Macédoine</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
   </si>
 </sst>
 </file>
@@ -5823,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M138" workbookViewId="0">
-      <selection activeCell="R173" sqref="R173"/>
+    <sheetView tabSelected="1" topLeftCell="M166" workbookViewId="0">
+      <selection activeCell="Q179" sqref="Q179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19444,7 +19444,7 @@
         <v>1314</v>
       </c>
       <c r="R172" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="S172" t="s">
         <v>1309</v>
@@ -20309,10 +20309,10 @@
         <v>3405</v>
       </c>
       <c r="Q183" t="s">
+        <v>1637</v>
+      </c>
+      <c r="R183" t="s">
         <v>1628</v>
-      </c>
-      <c r="R183" t="s">
-        <v>1629</v>
       </c>
       <c r="S183" t="s">
         <v>1388</v>
@@ -20472,7 +20472,7 @@
         <v>1405</v>
       </c>
       <c r="R185" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="S185" t="s">
         <v>1402</v>
@@ -20552,7 +20552,7 @@
         <v>1410</v>
       </c>
       <c r="R186" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="S186" t="s">
         <v>1406</v>
@@ -20712,7 +20712,7 @@
         <v>1419</v>
       </c>
       <c r="R188" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="S188" t="s">
         <v>1418</v>
@@ -20869,7 +20869,7 @@
         <v>1437</v>
       </c>
       <c r="R190" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="S190" t="s">
         <v>1431</v>
@@ -21029,7 +21029,7 @@
         <v>1448</v>
       </c>
       <c r="R192" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="S192" t="s">
         <v>1447</v>
@@ -21251,7 +21251,7 @@
         <v>1468</v>
       </c>
       <c r="R195" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="T195" t="s">
         <v>34</v>
@@ -22785,7 +22785,7 @@
         <v>1564</v>
       </c>
       <c r="C245" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D245">
         <v>0</v>
